--- a/Figures-Tables-Manuscript/Manuscript/T4_LOADINGS-ALLAUTHORS.xlsx
+++ b/Figures-Tables-Manuscript/Manuscript/T4_LOADINGS-ALLAUTHORS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelynreahl/Documents/BergmannLab_2018-2020/Reahl_2020/Figures-Tables-Manuscript/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CDEE1A-A521-A44B-810A-EB64CBB093BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA40B6D1-2CDC-AD4F-8F9E-4A67CA17EDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="440" windowWidth="25500" windowHeight="14340" xr2:uid="{90FB161A-7DBC-964F-B276-3FA1723C5094}"/>
+    <workbookView xWindow="20" yWindow="440" windowWidth="25500" windowHeight="14200" xr2:uid="{90FB161A-7DBC-964F-B276-3FA1723C5094}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>cf</t>
   </si>
   <si>
-    <t>Table [LOADINGS-ALLAUTHORS]. Ranked loadings and squared loadings of microtextures from the all-textures PCA ordination (Figure [PCA-ALLAUTHORS]). The microtextures in bold have squared loadings that are greater than the expected value of their associated principal component according to the broken-stick criterion (Frontier 1976; Jackson 1993; Legendre and Legendre 1998; Peres-Neto et al. 2003).</t>
-  </si>
-  <si>
     <r>
       <t>Loading</t>
     </r>
@@ -105,6 +102,9 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>Table 4. Ranked loadings and squared loadings of microtextures from the all-textures PCA ordination (Fig. 8). Refer to Figure 3A and B for microtexture abbreviations. The microtextures in bold have squared loadings that are greater than the expected value of their associated principal component according to the broken-stick criterion (Frontier 1976; Jackson 1993; Legendre and Legendre 1998; Peres-Neto et al. 2003).</t>
   </si>
 </sst>
 </file>
@@ -314,59 +314,59 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,75 +682,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9207E8C7-3CF3-6F4D-BEF5-DF95F06EB240}">
-  <dimension ref="B1:K45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="10" width="8.5" customWidth="1"/>
+    <col min="1" max="9" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="2:10" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -759,462 +760,462 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="29" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="37">
+      <c r="B8" s="27"/>
+      <c r="C8" s="32">
         <v>0.25860089000000003</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="4">
+      <c r="E8" s="24"/>
+      <c r="F8" s="4">
         <v>0.17526755999999999</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="17">
+      <c r="H8" s="27"/>
+      <c r="I8" s="17">
         <v>0.13360089</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="C9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="32" t="s">
+      <c r="F9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="H9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+      <c r="I9" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18">
+      <c r="B10" s="18">
         <v>0.28636600000000001</v>
       </c>
-      <c r="D10" s="39">
-        <f>C10^2</f>
+      <c r="C10" s="34">
+        <f>B10^2</f>
         <v>8.2005485956000004E-2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E10" s="8">
+        <v>0.457098</v>
+      </c>
       <c r="F10" s="8">
-        <v>0.457098</v>
-      </c>
-      <c r="G10" s="8">
-        <f>F10^2</f>
+        <f>E10^2</f>
         <v>0.208938581604</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="G10" s="29" t="s">
         <v>7</v>
       </c>
+      <c r="H10" s="20">
+        <v>0.592167</v>
+      </c>
       <c r="I10" s="20">
-        <v>0.592167</v>
-      </c>
-      <c r="J10" s="20">
-        <f>I10^2</f>
+        <f>H10^2</f>
         <v>0.350661755889</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18">
+      <c r="B11" s="18">
         <v>0.23876</v>
       </c>
-      <c r="D11" s="39">
-        <f>C11^2</f>
+      <c r="C11" s="34">
+        <f>B11^2</f>
         <v>5.7006337599999998E-2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="E11" s="8">
+        <v>0.45518999999999998</v>
+      </c>
       <c r="F11" s="8">
-        <v>0.45518999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" ref="G11:G21" si="0">F11^2</f>
+        <f t="shared" ref="F11:F21" si="0">E11^2</f>
         <v>0.20719793609999998</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="G11" s="29" t="s">
         <v>10</v>
       </c>
+      <c r="H11" s="20">
+        <v>0.410748</v>
+      </c>
       <c r="I11" s="20">
-        <v>0.410748</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" ref="J11:J21" si="1">I11^2</f>
+        <f t="shared" ref="I11:I21" si="1">H11^2</f>
         <v>0.168713919504</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="18">
+      <c r="B12" s="18">
         <v>0.14083100000000001</v>
       </c>
-      <c r="D12" s="39">
-        <f t="shared" ref="D12:D21" si="2">C12^2</f>
+      <c r="C12" s="34">
+        <f t="shared" ref="C12:C21" si="2">B12^2</f>
         <v>1.9833370561000003E-2</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E12" s="8">
+        <v>0.43185600000000002</v>
+      </c>
       <c r="F12" s="8">
-        <v>0.43185600000000002</v>
-      </c>
-      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0.18649960473600002</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="30" t="s">
         <v>12</v>
       </c>
+      <c r="H12" s="18">
+        <v>0.153061</v>
+      </c>
       <c r="I12" s="18">
-        <v>0.153061</v>
-      </c>
-      <c r="J12" s="18">
         <f t="shared" si="1"/>
         <v>2.3427669721000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18">
+      <c r="B13" s="18">
         <v>-0.10442700000000001</v>
       </c>
-      <c r="D13" s="39">
+      <c r="C13" s="34">
         <f t="shared" si="2"/>
         <v>1.0904998329000002E-2</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E13" s="6">
+        <v>0.13892399999999999</v>
+      </c>
       <c r="F13" s="6">
-        <v>0.13892399999999999</v>
-      </c>
-      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>1.9299877775999997E-2</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="G13" s="30" t="s">
         <v>14</v>
       </c>
+      <c r="H13" s="18">
+        <v>0.134628</v>
+      </c>
       <c r="I13" s="18">
-        <v>0.134628</v>
-      </c>
-      <c r="J13" s="18">
         <f t="shared" si="1"/>
         <v>1.8124698384E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18">
+      <c r="B14" s="18">
         <v>-0.114098</v>
       </c>
-      <c r="D14" s="39">
+      <c r="C14" s="34">
         <f t="shared" si="2"/>
         <v>1.3018353604000001E-2</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E14" s="6">
+        <v>0.111915</v>
+      </c>
       <c r="F14" s="6">
-        <v>0.111915</v>
-      </c>
-      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>1.2524967225000001E-2</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="30" t="s">
         <v>9</v>
       </c>
+      <c r="H14" s="18">
+        <v>0.12625</v>
+      </c>
       <c r="I14" s="18">
-        <v>0.12625</v>
-      </c>
-      <c r="J14" s="18">
         <f t="shared" si="1"/>
         <v>1.59390625E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18">
+      <c r="B15" s="18">
         <v>-0.12847900000000001</v>
       </c>
-      <c r="D15" s="39">
+      <c r="C15" s="34">
         <f t="shared" si="2"/>
         <v>1.6506853441000002E-2</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E15" s="6">
+        <v>9.0227000000000002E-2</v>
+      </c>
       <c r="F15" s="6">
-        <v>9.0227000000000002E-2</v>
-      </c>
-      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>8.1409115290000007E-3</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="30" t="s">
         <v>6</v>
       </c>
+      <c r="H15" s="18">
+        <v>8.8943999999999995E-2</v>
+      </c>
       <c r="I15" s="18">
-        <v>8.8943999999999995E-2</v>
-      </c>
-      <c r="J15" s="18">
         <f t="shared" si="1"/>
         <v>7.9110351359999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18">
+      <c r="B16" s="18">
         <v>-0.27230900000000002</v>
       </c>
-      <c r="D16" s="39">
+      <c r="C16" s="34">
         <f t="shared" si="2"/>
         <v>7.415219148100001E-2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E16" s="6">
+        <v>1.7689E-2</v>
+      </c>
       <c r="F16" s="6">
-        <v>1.7689E-2</v>
-      </c>
-      <c r="G16" s="6">
         <f t="shared" si="0"/>
         <v>3.1290072100000001E-4</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="G16" s="30" t="s">
         <v>15</v>
       </c>
+      <c r="H16" s="18">
+        <v>1.8928E-2</v>
+      </c>
       <c r="I16" s="18">
-        <v>1.8928E-2</v>
-      </c>
-      <c r="J16" s="18">
         <f t="shared" si="1"/>
         <v>3.58269184E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="18">
+      <c r="B17" s="18">
         <v>-0.29975000000000002</v>
       </c>
-      <c r="D17" s="39">
+      <c r="C17" s="34">
         <f t="shared" si="2"/>
         <v>8.9850062500000008E-2</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E17" s="6">
+        <v>-2.8490000000000001E-2</v>
+      </c>
       <c r="F17" s="6">
-        <v>-2.8490000000000001E-2</v>
-      </c>
-      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>8.116801000000001E-4</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="G17" s="30" t="s">
         <v>13</v>
       </c>
+      <c r="H17" s="18">
+        <v>-5.5073999999999998E-2</v>
+      </c>
       <c r="I17" s="18">
-        <v>-5.5073999999999998E-2</v>
-      </c>
-      <c r="J17" s="18">
         <f t="shared" si="1"/>
         <v>3.0331454759999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="18">
+      <c r="B18" s="18">
         <v>-0.32392900000000002</v>
       </c>
-      <c r="D18" s="39">
+      <c r="C18" s="34">
         <f t="shared" si="2"/>
         <v>0.10492999704100002</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E18" s="6">
+        <v>-0.15320400000000001</v>
+      </c>
       <c r="F18" s="6">
-        <v>-0.15320400000000001</v>
-      </c>
-      <c r="G18" s="6">
         <f t="shared" si="0"/>
         <v>2.3471465616000001E-2</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="G18" s="30" t="s">
         <v>8</v>
       </c>
+      <c r="H18" s="18">
+        <v>-7.0694999999999994E-2</v>
+      </c>
       <c r="I18" s="18">
-        <v>-7.0694999999999994E-2</v>
-      </c>
-      <c r="J18" s="18">
         <f t="shared" si="1"/>
         <v>4.997783024999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="18">
+      <c r="B19" s="18">
         <v>-0.33518900000000001</v>
       </c>
-      <c r="D19" s="39">
+      <c r="C19" s="34">
         <f t="shared" si="2"/>
         <v>0.11235166572100001</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E19" s="6">
+        <v>-0.168014</v>
+      </c>
       <c r="F19" s="6">
-        <v>-0.168014</v>
-      </c>
-      <c r="G19" s="6">
         <f t="shared" si="0"/>
         <v>2.8228704195999998E-2</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="G19" s="30" t="s">
         <v>17</v>
       </c>
+      <c r="H19" s="18">
+        <v>-0.27879500000000002</v>
+      </c>
       <c r="I19" s="18">
-        <v>-0.27879500000000002</v>
-      </c>
-      <c r="J19" s="18">
         <f t="shared" si="1"/>
         <v>7.7726652025000009E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="18">
+      <c r="B20" s="18">
         <v>-0.42489500000000002</v>
       </c>
-      <c r="D20" s="39">
+      <c r="C20" s="34">
         <f t="shared" si="2"/>
         <v>0.18053576102500002</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E20" s="6">
+        <v>-0.35022199999999998</v>
+      </c>
       <c r="F20" s="6">
-        <v>-0.35022199999999998</v>
-      </c>
-      <c r="G20" s="6">
         <f t="shared" si="0"/>
         <v>0.12265544928399999</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="G20" s="30" t="s">
         <v>11</v>
       </c>
+      <c r="H20" s="18">
+        <v>-0.31179600000000002</v>
+      </c>
       <c r="I20" s="18">
-        <v>-0.31179600000000002</v>
-      </c>
-      <c r="J20" s="18">
         <f t="shared" si="1"/>
         <v>9.7216745616000008E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="9">
+      <c r="B21" s="9">
         <v>-0.48877900000000002</v>
       </c>
-      <c r="D21" s="40">
+      <c r="C21" s="35">
         <f t="shared" si="2"/>
         <v>0.23890491084100002</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="E21" s="11">
+        <v>-0.42651899999999998</v>
+      </c>
       <c r="F21" s="11">
-        <v>-0.42651899999999998</v>
-      </c>
-      <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>0.18191845736099999</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="G21" s="31" t="s">
         <v>16</v>
       </c>
+      <c r="H21" s="11">
+        <v>-0.48154999999999998</v>
+      </c>
       <c r="I21" s="11">
-        <v>-0.48154999999999998</v>
-      </c>
-      <c r="J21" s="11">
         <f t="shared" si="1"/>
         <v>0.23189040249999998</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1223,9 +1224,9 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1235,10 +1236,10 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="2:11" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+    </row>
+    <row r="24" spans="1:10" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1246,34 +1247,34 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1282,154 +1283,154 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="16"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="16"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="13"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="16"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="16"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="13"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="13"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="16"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="16"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="13"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="21"/>
       <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -1439,9 +1440,9 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -1451,9 +1452,9 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -1463,9 +1464,9 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -1475,11 +1476,11 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
       <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -1487,9 +1488,9 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -1499,18 +1500,18 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:J5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>